--- a/academycity/data/avi/datasets/excel/world_bank/output/2019_AI_o.xlsx
+++ b/academycity/data/avi/datasets/excel/world_bank/output/2019_AI_o.xlsx
@@ -3224,13 +3224,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.014983</v>
+        <v>0.06265900000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01789</v>
+        <v>-0.015936</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.010234</v>
+        <v>-0.015437</v>
       </c>
     </row>
     <row r="3">
@@ -3243,13 +3243,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001538</v>
+        <v>2.499728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000675</v>
+        <v>0.000601</v>
       </c>
       <c r="E3" t="n">
-        <v>0.318016</v>
+        <v>-0.013062</v>
       </c>
     </row>
     <row r="4">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003843</v>
+        <v>2.839766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003265</v>
+        <v>0.002908</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.003106</v>
+        <v>-0.015385</v>
       </c>
     </row>
     <row r="5">
@@ -3281,13 +3281,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.015145</v>
+        <v>0.038728</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.018072</v>
+        <v>-0.016098</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003026</v>
+        <v>-0.015341</v>
       </c>
     </row>
     <row r="6">
@@ -3300,13 +3300,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02769</v>
+        <v>6.357329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03006</v>
+        <v>0.026777</v>
       </c>
       <c r="E6" t="n">
-        <v>0.012042</v>
+        <v>-0.015276</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.016401</v>
+        <v>4.692142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.017376</v>
+        <v>0.015478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.329984</v>
+        <v>-0.012976</v>
       </c>
     </row>
     <row r="8">
@@ -3338,13 +3338,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.842852</v>
+        <v>126.601707</v>
       </c>
       <c r="D8" t="n">
-        <v>0.946041</v>
+        <v>0.842704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.052004</v>
+        <v>-0.014987</v>
       </c>
     </row>
     <row r="9">
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.519931</v>
+        <v>78.967707</v>
       </c>
       <c r="E9" t="n">
-        <v>0.160343</v>
+        <v>-0.014203</v>
       </c>
     </row>
     <row r="10">
@@ -3373,13 +3373,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.003866</v>
+        <v>1.702536</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.005398</v>
+        <v>-0.004808</v>
       </c>
       <c r="E10" t="n">
-        <v>0.093497</v>
+        <v>-0.014686</v>
       </c>
     </row>
     <row r="11">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.284899</v>
+        <v>44.298175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.319081</v>
+        <v>0.284227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5307500000000001</v>
+        <v>-0.011523</v>
       </c>
     </row>
     <row r="12">
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.000938</v>
+        <v>2.411177</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.009202999999999999</v>
+        <v>-0.015429</v>
       </c>
     </row>
     <row r="13">
@@ -3430,13 +3430,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.009712999999999999</v>
+        <v>3.705573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009860000000000001</v>
+        <v>0.008782999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.053483</v>
+        <v>-0.014976</v>
       </c>
     </row>
     <row r="14">
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.537579</v>
+        <v>81.57092400000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.108781</v>
+        <v>-0.014576</v>
       </c>
     </row>
     <row r="15">
@@ -3465,13 +3465,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.008546</v>
+        <v>1.012182</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.010657</v>
+        <v>-0.009493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048439</v>
+        <v>-0.015012</v>
       </c>
     </row>
     <row r="16">
@@ -3484,13 +3484,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.014477</v>
+        <v>0.1373</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.017322</v>
+        <v>-0.01543</v>
       </c>
       <c r="E16" t="n">
-        <v>0.062848</v>
+        <v>-0.014908</v>
       </c>
     </row>
     <row r="17">
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.09339699999999999</v>
+        <v>16.04983</v>
       </c>
       <c r="D17" t="n">
-        <v>0.103895</v>
+        <v>0.092546</v>
       </c>
     </row>
     <row r="18">
@@ -3519,13 +3519,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.020623</v>
+        <v>5.314891</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02212</v>
+        <v>0.019703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.249985</v>
+        <v>-0.013554</v>
       </c>
     </row>
     <row r="19">
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.07196900000000001</v>
+        <v>12.888911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.079816</v>
+        <v>0.07109799999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.007956</v>
+        <v>-0.01542</v>
       </c>
     </row>
     <row r="20">
@@ -3557,10 +3557,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.133795</v>
+        <v>22.008867</v>
       </c>
       <c r="E20" t="n">
-        <v>0.15724</v>
+        <v>-0.014225</v>
       </c>
     </row>
     <row r="21">
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.015095</v>
+        <v>0.046083</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.018016</v>
+        <v>-0.016048</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01412</v>
+        <v>-0.015261</v>
       </c>
     </row>
     <row r="22">
@@ -3592,13 +3592,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.015313</v>
+        <v>0.013983</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.018261</v>
+        <v>-0.016266</v>
       </c>
       <c r="E22" t="n">
-        <v>0.021545</v>
+        <v>-0.015207</v>
       </c>
     </row>
     <row r="23">
@@ -3611,13 +3611,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.004769</v>
+        <v>2.976322</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004305</v>
+        <v>0.003835</v>
       </c>
       <c r="E23" t="n">
-        <v>0.021698</v>
+        <v>-0.015206</v>
       </c>
     </row>
     <row r="24">
@@ -3630,13 +3630,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.004856</v>
+        <v>1.556568</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00651</v>
+        <v>-0.005799</v>
       </c>
       <c r="E24" t="n">
-        <v>0.011813</v>
+        <v>-0.015277</v>
       </c>
     </row>
     <row r="25">
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.625695</v>
+        <v>94.568905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.702026</v>
+        <v>0.625343</v>
       </c>
       <c r="E25" t="n">
-        <v>0.033454</v>
+        <v>-0.015121</v>
       </c>
     </row>
     <row r="26">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.000663</v>
+        <v>-0.015358</v>
       </c>
     </row>
     <row r="27">
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.020602</v>
+        <v>-0.015214</v>
       </c>
     </row>
     <row r="28">
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09354999999999999</v>
+        <v>16.072341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.104066</v>
+        <v>0.092699</v>
       </c>
       <c r="E28" t="n">
-        <v>0.052883</v>
+        <v>-0.01498</v>
       </c>
     </row>
     <row r="29">
@@ -3713,13 +3713,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.103934</v>
+        <v>17.604128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115735</v>
+        <v>0.103093</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.012858</v>
+        <v>-0.015456</v>
       </c>
     </row>
     <row r="30">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.039346</v>
+        <v>8.076791</v>
       </c>
       <c r="D30" t="n">
-        <v>0.043159</v>
+        <v>0.038445</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01039</v>
+        <v>-0.015288</v>
       </c>
     </row>
     <row r="31">
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.015119</v>
+        <v>0.042678</v>
       </c>
     </row>
     <row r="32">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.01519</v>
+        <v>0.032074</v>
       </c>
     </row>
     <row r="33">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.031655</v>
+        <v>6.942231</v>
       </c>
       <c r="D33" t="n">
-        <v>0.034516</v>
+        <v>0.030746</v>
       </c>
       <c r="E33" t="n">
-        <v>0.196253</v>
+        <v>-0.013943</v>
       </c>
     </row>
     <row r="34">
@@ -3796,10 +3796,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01327</v>
+        <v>0.315351</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.015965</v>
+        <v>-0.014221</v>
       </c>
     </row>
     <row r="35">
@@ -3812,10 +3812,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.251256</v>
+        <v>39.335564</v>
       </c>
       <c r="E35" t="n">
-        <v>0.252492</v>
+        <v>-0.013536</v>
       </c>
     </row>
     <row r="36">
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005963</v>
+        <v>3.152489</v>
       </c>
       <c r="D36" t="n">
-        <v>0.005647</v>
+        <v>0.00503</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.00104</v>
+        <v>-0.01537</v>
       </c>
     </row>
     <row r="37">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.663655</v>
+        <v>100.168432</v>
       </c>
       <c r="E37" t="n">
-        <v>0.934361</v>
+        <v>-0.008603</v>
       </c>
     </row>
     <row r="38">
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.319674</v>
+        <v>49.427842</v>
       </c>
     </row>
     <row r="39">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.781744</v>
+        <v>117.587699</v>
       </c>
       <c r="E39" t="n">
-        <v>0.290047</v>
+        <v>-0.013265</v>
       </c>
     </row>
     <row r="40">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.087487</v>
+        <v>-0.01473</v>
       </c>
     </row>
     <row r="41">
@@ -3905,13 +3905,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.013537</v>
+        <v>0.275957</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.016265</v>
+        <v>-0.014489</v>
       </c>
       <c r="E41" t="n">
-        <v>0.076721</v>
+        <v>-0.014808</v>
       </c>
     </row>
     <row r="42">
@@ -3924,13 +3924,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.058988</v>
+        <v>10.974075</v>
       </c>
       <c r="D42" t="n">
-        <v>0.065229</v>
+        <v>0.058104</v>
       </c>
       <c r="E42" t="n">
-        <v>0.041167</v>
+        <v>-0.015065</v>
       </c>
     </row>
     <row r="43">
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.025453</v>
+        <v>6.027311</v>
       </c>
       <c r="D43" t="n">
-        <v>0.027547</v>
+        <v>0.024538</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.007143</v>
+        <v>-0.015415</v>
       </c>
     </row>
     <row r="44">
@@ -3962,13 +3962,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.013655</v>
+        <v>0.258625</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.016397</v>
+        <v>-0.014606</v>
       </c>
       <c r="E44" t="n">
-        <v>0.135619</v>
+        <v>-0.014382</v>
       </c>
     </row>
     <row r="45">
@@ -3981,7 +3981,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.155454</v>
+        <v>-0.014238</v>
       </c>
     </row>
     <row r="46">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.013877</v>
+        <v>0.225866</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.016647</v>
+        <v>-0.014829</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.001011</v>
+        <v>-0.01537</v>
       </c>
     </row>
     <row r="47">
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.397123</v>
+        <v>60.852296</v>
       </c>
       <c r="E47" t="n">
-        <v>1.065633</v>
+        <v>-0.007654</v>
       </c>
     </row>
     <row r="48">
@@ -4029,13 +4029,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.005845</v>
+        <v>1.410592</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.007622</v>
+        <v>-0.006789</v>
       </c>
       <c r="E48" t="n">
-        <v>0.31817</v>
+        <v>-0.013061</v>
       </c>
     </row>
     <row r="49">
@@ -4048,13 +4048,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.005197</v>
+        <v>1.506135</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.006894</v>
+        <v>-0.006141</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.008928</v>
+        <v>-0.015427</v>
       </c>
     </row>
     <row r="50">
@@ -4067,10 +4067,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.718898</v>
+        <v>108.31729</v>
       </c>
       <c r="E50" t="n">
-        <v>0.312495</v>
+        <v>-0.013102</v>
       </c>
     </row>
     <row r="51">
@@ -4083,10 +4083,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.318756</v>
+        <v>49.292407</v>
       </c>
       <c r="E51" t="n">
-        <v>0.012325</v>
+        <v>-0.015274</v>
       </c>
     </row>
     <row r="52">
@@ -4099,13 +4099,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.002764</v>
+        <v>1.865167</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.004159</v>
+        <v>-0.003705</v>
       </c>
       <c r="E52" t="n">
-        <v>0.219738</v>
+        <v>-0.013773</v>
       </c>
     </row>
     <row r="53">
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.011747</v>
+        <v>0.5400509999999999</v>
       </c>
     </row>
     <row r="54">
@@ -4131,13 +4131,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01206</v>
+        <v>4.051789</v>
       </c>
       <c r="D54" t="n">
-        <v>0.012498</v>
+        <v>0.011133</v>
       </c>
       <c r="E54" t="n">
-        <v>0.254556</v>
+        <v>-0.013521</v>
       </c>
     </row>
     <row r="55">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.448671</v>
+        <v>68.45623500000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.007856</v>
+        <v>-0.015306</v>
       </c>
     </row>
     <row r="56">
@@ -4166,13 +4166,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.008989</v>
+        <v>3.598727</v>
       </c>
       <c r="D56" t="n">
-        <v>0.009046</v>
+        <v>0.008057999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.017948</v>
+        <v>-0.015233</v>
       </c>
     </row>
     <row r="57">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.367147</v>
+        <v>56.430529</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09647799999999999</v>
+        <v>-0.014665</v>
       </c>
     </row>
     <row r="58">
@@ -4201,13 +4201,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.014009</v>
+        <v>0.206317</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.016796</v>
+        <v>-0.014961</v>
       </c>
       <c r="E58" t="n">
-        <v>0.028026</v>
+        <v>-0.01516</v>
       </c>
     </row>
     <row r="59">
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.021975</v>
+        <v>-0.015204</v>
       </c>
     </row>
     <row r="60">
@@ -4233,10 +4233,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.015358</v>
+        <v>0.007412</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.018311</v>
+        <v>-0.016311</v>
       </c>
     </row>
     <row r="61">
@@ -4249,13 +4249,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.015465</v>
+        <v>-0.008409</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.018432</v>
+        <v>-0.016418</v>
       </c>
       <c r="E61" t="n">
-        <v>0.023448</v>
+        <v>-0.015193</v>
       </c>
     </row>
     <row r="62">
@@ -4268,13 +4268,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.014217</v>
+        <v>0.175696</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.017029</v>
+        <v>-0.015169</v>
       </c>
       <c r="E62" t="n">
-        <v>0.071503</v>
+        <v>-0.014846</v>
       </c>
     </row>
     <row r="63">
@@ -4287,10 +4287,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.848066</v>
+        <v>127.370868</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9519</v>
+        <v>0.847923</v>
       </c>
     </row>
     <row r="64">
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.223775</v>
+        <v>35.281809</v>
       </c>
       <c r="E64" t="n">
-        <v>0.107849</v>
+        <v>-0.014583</v>
       </c>
     </row>
     <row r="65">
@@ -4319,13 +4319,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.019243</v>
+        <v>5.111356</v>
       </c>
       <c r="D65" t="n">
-        <v>0.020569</v>
+        <v>0.018322</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.012817</v>
+        <v>-0.015456</v>
       </c>
     </row>
     <row r="66">
@@ -4338,13 +4338,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.04689</v>
+        <v>9.189564000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.051635</v>
+        <v>0.045995</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.009802</v>
+        <v>-0.015434</v>
       </c>
     </row>
     <row r="67">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.208235</v>
+        <v>32.989469</v>
       </c>
     </row>
     <row r="68">
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.020585</v>
+        <v>5.309276</v>
       </c>
       <c r="D68" t="n">
-        <v>0.022077</v>
+        <v>0.019665</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.005726</v>
+        <v>-0.015404</v>
       </c>
     </row>
     <row r="69">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.543123</v>
+        <v>82.38872600000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.258463</v>
+        <v>-0.013493</v>
       </c>
     </row>
     <row r="70">
@@ -4405,13 +4405,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.522033</v>
+        <v>79.277738</v>
       </c>
       <c r="D70" t="n">
-        <v>0.585543</v>
+        <v>0.521584</v>
       </c>
       <c r="E70" t="n">
-        <v>0.152906</v>
+        <v>-0.014257</v>
       </c>
     </row>
     <row r="71">
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.368366</v>
+        <v>56.61038</v>
       </c>
       <c r="E71" t="n">
-        <v>0.011976</v>
+        <v>-0.015276</v>
       </c>
     </row>
     <row r="72">
@@ -4440,13 +4440,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.027777</v>
+        <v>6.3702</v>
       </c>
       <c r="D72" t="n">
-        <v>0.030159</v>
+        <v>0.026864</v>
       </c>
       <c r="E72" t="n">
-        <v>0.313289</v>
+        <v>-0.013096</v>
       </c>
     </row>
     <row r="73">
@@ -4459,13 +4459,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.23386</v>
+        <v>36.769511</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26173</v>
+        <v>0.233141</v>
       </c>
       <c r="E73" t="n">
-        <v>-9e-06</v>
+        <v>-0.015363</v>
       </c>
     </row>
     <row r="74">
@@ -4478,13 +4478,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.097785</v>
+        <v>16.697045</v>
       </c>
       <c r="D74" t="n">
-        <v>0.108825</v>
+        <v>0.096938</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08076999999999999</v>
+        <v>-0.014779</v>
       </c>
     </row>
     <row r="75">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01037</v>
+        <v>3.80242</v>
       </c>
       <c r="D75" t="n">
-        <v>0.010598</v>
+        <v>0.00944</v>
       </c>
       <c r="E75" t="n">
-        <v>0.044235</v>
+        <v>-0.015043</v>
       </c>
     </row>
     <row r="76">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2.272812</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.001054</v>
+        <v>-0.0009389999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.008937</v>
+        <v>-0.015298</v>
       </c>
     </row>
     <row r="77">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.372318</v>
+        <v>57.193385</v>
       </c>
     </row>
     <row r="78">
@@ -4548,13 +4548,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.053772</v>
+        <v>10.204708</v>
       </c>
       <c r="D78" t="n">
-        <v>0.059368</v>
+        <v>0.052884</v>
       </c>
       <c r="E78" t="n">
-        <v>0.204493</v>
+        <v>-0.013883</v>
       </c>
     </row>
     <row r="79">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.012631</v>
+        <v>0.409592</v>
       </c>
     </row>
     <row r="80">
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.013481</v>
+        <v>0.28428</v>
       </c>
     </row>
     <row r="81">
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.243846</v>
+        <v>38.242449</v>
       </c>
       <c r="E81" t="n">
-        <v>0.689453</v>
+        <v>-0.010375</v>
       </c>
     </row>
     <row r="82">
@@ -4609,13 +4609,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.09411600000000001</v>
+        <v>16.155878</v>
       </c>
       <c r="D82" t="n">
-        <v>0.104702</v>
+        <v>0.093266</v>
       </c>
       <c r="E82" t="n">
-        <v>0.110119</v>
+        <v>-0.014566</v>
       </c>
     </row>
     <row r="83">
@@ -4628,13 +4628,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.010498</v>
+        <v>0.724312</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01285</v>
+        <v>-0.011446</v>
       </c>
       <c r="E83" t="n">
-        <v>0.288016</v>
+        <v>-0.013279</v>
       </c>
     </row>
     <row r="84">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.080884</v>
+        <v>-0.014778</v>
       </c>
     </row>
     <row r="85">
@@ -4660,13 +4660,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.006225</v>
+        <v>1.354581</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.008049000000000001</v>
+        <v>-0.00717</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001083</v>
+        <v>-0.015355</v>
       </c>
     </row>
     <row r="86">
@@ -4679,10 +4679,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.223832</v>
+        <v>35.290174</v>
       </c>
       <c r="E86" t="n">
-        <v>0.448721</v>
+        <v>-0.012117</v>
       </c>
     </row>
     <row r="87">
@@ -4695,13 +4695,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.014522</v>
+        <v>0.130724</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.017372</v>
+        <v>-0.015474</v>
       </c>
       <c r="E87" t="n">
-        <v>0.005249</v>
+        <v>-0.015325</v>
       </c>
     </row>
     <row r="88">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.013382</v>
+        <v>0.298809</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.016091</v>
+        <v>-0.014334</v>
       </c>
       <c r="E88" t="n">
-        <v>0.023102</v>
+        <v>-0.015196</v>
       </c>
     </row>
     <row r="89">
@@ -4733,13 +4733,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.218085</v>
+        <v>34.442551</v>
       </c>
       <c r="D89" t="n">
-        <v>0.244004</v>
+        <v>0.217351</v>
       </c>
       <c r="E89" t="n">
-        <v>0.030611</v>
+        <v>-0.015141</v>
       </c>
     </row>
     <row r="90">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.014283</v>
+        <v>0.165931</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.017103</v>
+        <v>-0.015235</v>
       </c>
       <c r="E90" t="n">
-        <v>0.021739</v>
+        <v>-0.015206</v>
       </c>
     </row>
     <row r="91">
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.014887</v>
+        <v>0.076907</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.017782</v>
+        <v>-0.015839</v>
       </c>
       <c r="E91" t="n">
-        <v>0.080766</v>
+        <v>-0.014779</v>
       </c>
     </row>
     <row r="92">
@@ -4790,13 +4790,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.066829</v>
+        <v>12.130782</v>
       </c>
       <c r="D92" t="n">
-        <v>0.074041</v>
+        <v>0.065953</v>
       </c>
       <c r="E92" t="n">
-        <v>0.849903</v>
+        <v>-0.009214</v>
       </c>
     </row>
     <row r="93">
@@ -4809,13 +4809,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.027174</v>
+        <v>6.281245</v>
       </c>
       <c r="D93" t="n">
-        <v>0.029481</v>
+        <v>0.026261</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.002992</v>
+        <v>-0.015384</v>
       </c>
     </row>
     <row r="94">
@@ -4828,13 +4828,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.001164</v>
+        <v>2.101107</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.002362</v>
+        <v>-0.002104</v>
       </c>
       <c r="E94" t="n">
-        <v>0.335513</v>
+        <v>-0.012936</v>
       </c>
     </row>
     <row r="95">
@@ -4847,13 +4847,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.003206</v>
+        <v>2.745778</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002549</v>
+        <v>0.002271</v>
       </c>
       <c r="E95" t="n">
-        <v>0.177444</v>
+        <v>-0.014079</v>
       </c>
     </row>
     <row r="96">
@@ -4866,13 +4866,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.013604</v>
+        <v>4.279585</v>
       </c>
       <c r="D96" t="n">
-        <v>0.014233</v>
+        <v>0.012678</v>
       </c>
       <c r="E96" t="n">
-        <v>0.012786</v>
+        <v>-0.01527</v>
       </c>
     </row>
     <row r="97">
@@ -4885,13 +4885,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.001104</v>
+        <v>2.1099</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.002295</v>
+        <v>-0.002044</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004727</v>
+        <v>-0.015329</v>
       </c>
     </row>
     <row r="98">
@@ -4904,13 +4904,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.011741</v>
+        <v>0.540954</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.014247</v>
+        <v>-0.01269</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.008548</v>
+        <v>-0.015425</v>
       </c>
     </row>
     <row r="99">
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.273349</v>
+        <v>-0.013385</v>
       </c>
     </row>
     <row r="100">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.008285000000000001</v>
+        <v>1.050686</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.010364</v>
+        <v>-0.009232000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>0.017429</v>
+        <v>-0.015237</v>
       </c>
     </row>
     <row r="101">
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.698997</v>
+        <v>105.3817</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07682899999999999</v>
+        <v>-0.014807</v>
       </c>
     </row>
     <row r="102">
@@ -4971,13 +4971,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.567441</v>
+        <v>85.975961</v>
       </c>
       <c r="D102" t="n">
-        <v>0.636568</v>
+        <v>0.567035</v>
       </c>
       <c r="E102" t="n">
-        <v>0.311319</v>
+        <v>-0.013111</v>
       </c>
     </row>
     <row r="103">
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.005798</v>
+        <v>1.41761</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.007569</v>
+        <v>-0.006742</v>
       </c>
       <c r="E103" t="n">
-        <v>0.08722299999999999</v>
+        <v>-0.014732</v>
       </c>
     </row>
     <row r="104">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.015197</v>
+        <v>0.031061</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.018131</v>
+        <v>-0.01615</v>
       </c>
       <c r="E104" t="n">
-        <v>0.004125</v>
+        <v>-0.015333</v>
       </c>
     </row>
     <row r="105">
@@ -5028,13 +5028,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.001083</v>
+        <v>2.113028</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.002271</v>
+        <v>-0.002023</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.010285</v>
+        <v>-0.015437</v>
       </c>
     </row>
     <row r="106">
@@ -5047,13 +5047,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.075517</v>
+        <v>13.4123</v>
       </c>
       <c r="D106" t="n">
-        <v>0.083803</v>
+        <v>0.07464899999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.508602</v>
+        <v>-0.011683</v>
       </c>
     </row>
     <row r="107">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.746205</v>
+        <v>112.345319</v>
       </c>
       <c r="D107" t="n">
-        <v>0.837441</v>
+        <v>0.745966</v>
       </c>
       <c r="E107" t="n">
-        <v>0.296581</v>
+        <v>-0.013217</v>
       </c>
     </row>
     <row r="108">
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.038182</v>
+        <v>7.905064</v>
       </c>
       <c r="D108" t="n">
-        <v>0.041851</v>
+        <v>0.037279</v>
       </c>
       <c r="E108" t="n">
-        <v>0.223611</v>
+        <v>-0.013745</v>
       </c>
     </row>
     <row r="109">
@@ -5104,13 +5104,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.009693999999999999</v>
+        <v>3.702813</v>
       </c>
       <c r="D109" t="n">
-        <v>0.009839000000000001</v>
+        <v>0.008765</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.009728000000000001</v>
+        <v>-0.015433</v>
       </c>
     </row>
     <row r="110">
@@ -5123,13 +5123,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.000292</v>
+        <v>2.315882</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.000726</v>
+        <v>-0.000647</v>
       </c>
       <c r="E110" t="n">
-        <v>0.23565</v>
+        <v>-0.013658</v>
       </c>
     </row>
     <row r="111">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.014079</v>
+        <v>0.195999</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.016874</v>
+        <v>-0.015031</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.002089</v>
+        <v>-0.015378</v>
       </c>
     </row>
     <row r="112">
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.010056</v>
+        <v>0.789467</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.012354</v>
+        <v>-0.011004</v>
       </c>
       <c r="E112" t="n">
-        <v>0.107867</v>
+        <v>-0.014582</v>
       </c>
     </row>
     <row r="113">
@@ -5180,13 +5180,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.004296</v>
+        <v>2.906585</v>
       </c>
       <c r="D113" t="n">
-        <v>0.003774</v>
+        <v>0.003362</v>
       </c>
       <c r="E113" t="n">
-        <v>0.017872</v>
+        <v>-0.015234</v>
       </c>
     </row>
     <row r="114">
@@ -5199,13 +5199,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.000142</v>
+        <v>2.293744</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.000895</v>
+        <v>-0.000797</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.003321</v>
+        <v>-0.015387</v>
       </c>
     </row>
     <row r="115">
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.201673</v>
+        <v>32.02154</v>
       </c>
       <c r="E115" t="n">
-        <v>0.023039</v>
+        <v>-0.015196</v>
       </c>
     </row>
     <row r="116">
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.494629</v>
+        <v>75.23543100000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.119732</v>
+        <v>-0.014497</v>
       </c>
     </row>
     <row r="117">
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.084437</v>
+        <v>14.728028</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09382600000000001</v>
+        <v>0.083577</v>
       </c>
     </row>
     <row r="118">
@@ -5266,13 +5266,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.186929</v>
+        <v>29.846715</v>
       </c>
       <c r="D118" t="n">
-        <v>0.208995</v>
+        <v>0.186166</v>
       </c>
       <c r="E118" t="n">
-        <v>0.427528</v>
+        <v>-0.01227</v>
       </c>
     </row>
     <row r="119">
@@ -5285,10 +5285,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.129806</v>
+        <v>21.420473</v>
       </c>
       <c r="E119" t="n">
-        <v>0.044841</v>
+        <v>-0.015038</v>
       </c>
     </row>
     <row r="120">
@@ -5301,13 +5301,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.086268</v>
+        <v>14.998121</v>
       </c>
       <c r="D120" t="n">
-        <v>0.095883</v>
+        <v>0.08541</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.004328</v>
+        <v>-0.015394</v>
       </c>
     </row>
     <row r="121">
@@ -5320,13 +5320,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.012273</v>
+        <v>0.462364</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.014845</v>
+        <v>-0.013224</v>
       </c>
       <c r="E121" t="n">
-        <v>0.049635</v>
+        <v>-0.015004</v>
       </c>
     </row>
     <row r="122">
@@ -5339,13 +5339,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.089113</v>
+        <v>15.41786</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09908</v>
+        <v>0.088258</v>
       </c>
       <c r="E122" t="n">
-        <v>0.013486</v>
+        <v>-0.015265</v>
       </c>
     </row>
     <row r="123">
@@ -5358,13 +5358,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-0.010848</v>
+        <v>0.6727</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.013243</v>
+        <v>-0.011797</v>
       </c>
       <c r="E123" t="n">
-        <v>0.040526</v>
+        <v>-0.01507</v>
       </c>
     </row>
     <row r="124">
@@ -5377,13 +5377,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.196435</v>
+        <v>31.248941</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219676</v>
+        <v>0.195681</v>
       </c>
       <c r="E124" t="n">
-        <v>0.144676</v>
+        <v>-0.014316</v>
       </c>
     </row>
     <row r="125">
@@ -5396,13 +5396,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.014923</v>
+        <v>0.071465</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.017823</v>
+        <v>-0.015876</v>
       </c>
       <c r="E125" t="n">
-        <v>0.02029</v>
+        <v>-0.015216</v>
       </c>
     </row>
     <row r="126">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>149.782606</v>
       </c>
       <c r="D126" t="n">
-        <v>1.122625</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0.317215</v>
+        <v>-0.013068</v>
       </c>
     </row>
     <row r="127">
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.206484</v>
+        <v>32.731249</v>
       </c>
       <c r="E127" t="n">
-        <v>0.20914</v>
+        <v>-0.01385</v>
       </c>
     </row>
     <row r="128">
@@ -5450,10 +5450,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.466605</v>
+        <v>71.10156000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.599167</v>
+        <v>-0.011028</v>
       </c>
     </row>
     <row r="129">
@@ -5466,13 +5466,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.015473</v>
+        <v>-0.009545</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.01844</v>
+        <v>-0.016426</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.011748</v>
+        <v>-0.015448</v>
       </c>
     </row>
     <row r="130">
@@ -5485,13 +5485,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.058434</v>
+        <v>10.892415</v>
       </c>
       <c r="D130" t="n">
-        <v>0.064607</v>
+        <v>0.05755</v>
       </c>
       <c r="E130" t="n">
-        <v>0.004287</v>
+        <v>-0.015332</v>
       </c>
     </row>
     <row r="131">
@@ -5504,13 +5504,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.015038</v>
+        <v>0.054563</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.017952</v>
+        <v>-0.015991</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.00941</v>
+        <v>-0.015431</v>
       </c>
     </row>
     <row r="132">
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.349975</v>
+        <v>53.897486</v>
       </c>
       <c r="E132" t="n">
-        <v>0.013666</v>
+        <v>-0.015264</v>
       </c>
     </row>
     <row r="133">
@@ -5539,13 +5539,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.026447</v>
+        <v>6.173965</v>
       </c>
       <c r="D133" t="n">
-        <v>0.028664</v>
+        <v>0.025533</v>
       </c>
       <c r="E133" t="n">
-        <v>0.021885</v>
+        <v>-0.015205</v>
       </c>
     </row>
     <row r="134">
@@ -5558,13 +5558,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.012707</v>
+        <v>0.398374</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.015333</v>
+        <v>-0.013658</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.01208</v>
+        <v>-0.01545</v>
       </c>
     </row>
     <row r="135">
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.658492</v>
+        <v>99.406874</v>
       </c>
       <c r="E135" t="n">
-        <v>0.159417</v>
+        <v>-0.01421</v>
       </c>
     </row>
     <row r="136">
@@ -5593,13 +5593,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.005866</v>
+        <v>150.64791</v>
       </c>
       <c r="D136" t="n">
-        <v>1.129216</v>
+        <v>1.005872</v>
       </c>
       <c r="E136" t="n">
-        <v>0.164857</v>
+        <v>-0.01417</v>
       </c>
     </row>
     <row r="137">
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.011698</v>
+        <v>0.54718</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.014199</v>
+        <v>-0.012648</v>
       </c>
     </row>
     <row r="138">
@@ -5628,13 +5628,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.014841</v>
+        <v>0.08355799999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.017731</v>
+        <v>-0.015794</v>
       </c>
       <c r="E138" t="n">
-        <v>0.073891</v>
+        <v>-0.014828</v>
       </c>
     </row>
     <row r="139">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.012285</v>
+        <v>0.460658</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.014858</v>
+        <v>-0.013235</v>
       </c>
       <c r="E139" t="n">
-        <v>0.00062</v>
+        <v>-0.015358</v>
       </c>
     </row>
     <row r="140">
@@ -5666,13 +5666,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.03474</v>
+        <v>7.397271</v>
       </c>
       <c r="D140" t="n">
-        <v>0.037982</v>
+        <v>0.033834</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001802</v>
+        <v>-0.01535</v>
       </c>
     </row>
     <row r="141">
@@ -5685,13 +5685,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.013847</v>
+        <v>0.230313</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.016613</v>
+        <v>-0.014798</v>
       </c>
       <c r="E141" t="n">
-        <v>0.014489</v>
+        <v>-0.015258</v>
       </c>
     </row>
     <row r="142">
@@ -5704,10 +5704,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.01026</v>
+        <v>0.759308</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.012583</v>
+        <v>-0.011209</v>
       </c>
     </row>
     <row r="143">
@@ -5720,13 +5720,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.127776</v>
+        <v>21.120981</v>
       </c>
       <c r="D143" t="n">
-        <v>0.142525</v>
+        <v>0.126957</v>
       </c>
       <c r="E143" t="n">
-        <v>0.08243499999999999</v>
+        <v>-0.014766</v>
       </c>
     </row>
     <row r="144">
@@ -5739,7 +5739,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.102098</v>
+        <v>17.333206</v>
       </c>
     </row>
     <row r="145">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.002752</v>
+        <v>-0.015343</v>
       </c>
     </row>
     <row r="146">
@@ -5765,13 +5765,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.010959</v>
+        <v>0.656296</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.013368</v>
+        <v>-0.011908</v>
       </c>
       <c r="E146" t="n">
-        <v>0.006977</v>
+        <v>-0.015312</v>
       </c>
     </row>
     <row r="147">
@@ -5784,13 +5784,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.048354</v>
+        <v>9.405434</v>
       </c>
       <c r="D147" t="n">
-        <v>0.05328</v>
+        <v>0.04746</v>
       </c>
       <c r="E147" t="n">
-        <v>0.010467</v>
+        <v>-0.015287</v>
       </c>
     </row>
     <row r="148">
@@ -5803,13 +5803,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1522</v>
+        <v>24.723764</v>
       </c>
       <c r="D148" t="n">
-        <v>0.16997</v>
+        <v>0.151404</v>
       </c>
       <c r="E148" t="n">
-        <v>0.152282</v>
+        <v>-0.014261</v>
       </c>
     </row>
     <row r="149">
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.644385</v>
+        <v>97.325985</v>
       </c>
       <c r="D149" t="n">
-        <v>0.723028</v>
+        <v>0.644052</v>
       </c>
       <c r="E149" t="n">
-        <v>0.013956</v>
+        <v>-0.015262</v>
       </c>
     </row>
     <row r="150">
@@ -5841,13 +5841,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.565726</v>
+        <v>85.72291800000001</v>
       </c>
       <c r="D150" t="n">
-        <v>0.63464</v>
+        <v>0.565318</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.008425999999999999</v>
+        <v>-0.015424</v>
       </c>
     </row>
     <row r="151">
@@ -5860,13 +5860,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.050054</v>
+        <v>9.656230000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>0.05519</v>
+        <v>0.049162</v>
       </c>
       <c r="E151" t="n">
-        <v>0.376915</v>
+        <v>-0.012636</v>
       </c>
     </row>
     <row r="152">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-0.009268</v>
+        <v>0.905656</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.011468</v>
+        <v>-0.010216</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.005305</v>
+        <v>-0.015401</v>
       </c>
     </row>
     <row r="153">
@@ -5898,13 +5898,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.007071</v>
+        <v>1.22983</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.008999</v>
+        <v>-0.008016000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>0.003658</v>
+        <v>-0.015336</v>
       </c>
     </row>
     <row r="154">
@@ -5917,13 +5917,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.007145</v>
+        <v>3.326751</v>
       </c>
       <c r="D154" t="n">
-        <v>0.006975</v>
+        <v>0.006213</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.003033</v>
+        <v>-0.015385</v>
       </c>
     </row>
     <row r="155">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.03159</v>
+        <v>6.932711</v>
       </c>
     </row>
     <row r="156">
@@ -5949,13 +5949,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.011905</v>
+        <v>0.51667</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.014432</v>
+        <v>-0.012855</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.00123</v>
+        <v>-0.015372</v>
       </c>
     </row>
     <row r="157">
@@ -5968,13 +5968,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-0.011314</v>
+        <v>0.6039</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.013767</v>
+        <v>-0.012263</v>
       </c>
       <c r="E157" t="n">
-        <v>0.03437</v>
+        <v>-0.015114</v>
       </c>
     </row>
     <row r="158">
@@ -5987,13 +5987,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-0.000652</v>
+        <v>2.176568</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.001787</v>
+        <v>-0.001592</v>
       </c>
       <c r="E158" t="n">
-        <v>0.033047</v>
+        <v>-0.015124</v>
       </c>
     </row>
   </sheetData>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.06265900000000001</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6066,13 +6066,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001538</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000675</v>
+        <v>0.000601</v>
       </c>
       <c r="E3" t="n">
-        <v>0.318016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003843</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003265</v>
+        <v>0.002908</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.038728</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02769</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03006</v>
+        <v>0.026777</v>
       </c>
       <c r="E6" t="n">
-        <v>0.012042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6142,13 +6142,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.016401</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.017376</v>
+        <v>0.015478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.329984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6161,13 +6161,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.842852</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.946041</v>
+        <v>0.842704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.052004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6180,10 +6180,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.519931</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.160343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6196,13 +6196,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.093497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6215,13 +6215,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.284899</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.319081</v>
+        <v>0.284227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5307500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.000938</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6253,13 +6253,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.009712999999999999</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009860000000000001</v>
+        <v>0.008782999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.053483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.537579</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.108781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.048439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6307,13 +6307,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.1373</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.062848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6326,10 +6326,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.09339699999999999</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.103895</v>
+        <v>0.092546</v>
       </c>
     </row>
     <row r="18">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.020623</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02212</v>
+        <v>0.019703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.249985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6361,10 +6361,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.07196900000000001</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.079816</v>
+        <v>0.07109799999999999</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.133795</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.15724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.046083</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -6415,13 +6415,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.013983</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.021545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6434,13 +6434,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.004769</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004305</v>
+        <v>0.003835</v>
       </c>
       <c r="E23" t="n">
-        <v>0.021698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.011813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.625695</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.702026</v>
+        <v>0.625343</v>
       </c>
       <c r="E25" t="n">
-        <v>0.033454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.000663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6504,7 +6504,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.020602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09354999999999999</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.104066</v>
+        <v>0.092699</v>
       </c>
       <c r="E28" t="n">
-        <v>0.052883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.103934</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115735</v>
+        <v>0.103093</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.039346</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.043159</v>
+        <v>0.038445</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.042678</v>
       </c>
     </row>
     <row r="32">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.032074</v>
       </c>
     </row>
     <row r="33">
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.031655</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.034516</v>
+        <v>0.030746</v>
       </c>
       <c r="E33" t="n">
-        <v>0.196253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.315351</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -6635,10 +6635,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.251256</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.252492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6651,10 +6651,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005963</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.005647</v>
+        <v>0.00503</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.663655</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.934361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.319674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.781744</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.290047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.087487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6728,13 +6728,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.275957</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.076721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.058988</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.065229</v>
+        <v>0.058104</v>
       </c>
       <c r="E42" t="n">
-        <v>0.041167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.025453</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.027547</v>
+        <v>0.024538</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -6785,13 +6785,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.258625</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.135619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.155454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.225866</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -6836,10 +6836,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.397123</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.31817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -6890,10 +6890,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.718898</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.312495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.318756</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.012325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -6922,13 +6922,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.219738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.5400509999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01206</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.012498</v>
+        <v>0.011133</v>
       </c>
       <c r="E54" t="n">
-        <v>0.254556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6973,10 +6973,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.448671</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.007856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6989,13 +6989,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.008989</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.009046</v>
+        <v>0.008057999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.017948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -7008,10 +7008,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.367147</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09647799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7024,13 +7024,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.206317</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.028026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.021975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7056,7 +7056,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.007412</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.023448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7091,13 +7091,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.175696</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.071503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7110,10 +7110,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.848066</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9519</v>
+        <v>0.847923</v>
       </c>
     </row>
     <row r="64">
@@ -7126,10 +7126,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.223775</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.107849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7142,10 +7142,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.019243</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.020569</v>
+        <v>0.018322</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -7161,10 +7161,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.04689</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.051635</v>
+        <v>0.045995</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.208235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -7193,10 +7193,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.020585</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.022077</v>
+        <v>0.019665</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.543123</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.258463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7228,13 +7228,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.522033</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.585543</v>
+        <v>0.521584</v>
       </c>
       <c r="E70" t="n">
-        <v>0.152906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -7247,10 +7247,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.368366</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.011976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7263,13 +7263,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.027777</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.030159</v>
+        <v>0.026864</v>
       </c>
       <c r="E72" t="n">
-        <v>0.313289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.23386</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26173</v>
+        <v>0.233141</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -7301,13 +7301,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.097785</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.108825</v>
+        <v>0.096938</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08076999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01037</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.010598</v>
+        <v>0.00944</v>
       </c>
       <c r="E75" t="n">
-        <v>0.044235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.008937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.372318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.053772</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.059368</v>
+        <v>0.052884</v>
       </c>
       <c r="E78" t="n">
-        <v>0.204493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.409592</v>
       </c>
     </row>
     <row r="80">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.28428</v>
       </c>
     </row>
     <row r="81">
@@ -7416,10 +7416,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.243846</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0.689453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7432,13 +7432,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.09411600000000001</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.104702</v>
+        <v>0.093266</v>
       </c>
       <c r="E82" t="n">
-        <v>0.110119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7451,13 +7451,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.724312</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.288016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7470,7 +7470,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.080884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7483,13 +7483,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -7502,10 +7502,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.223832</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.448721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.130724</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.005249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7537,13 +7537,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.298809</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.023102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7556,13 +7556,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.218085</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.244004</v>
+        <v>0.217351</v>
       </c>
       <c r="E89" t="n">
-        <v>0.030611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7575,13 +7575,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.165931</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.021739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -7594,13 +7594,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.076907</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.080766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -7613,13 +7613,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.066829</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.074041</v>
+        <v>0.065953</v>
       </c>
       <c r="E92" t="n">
-        <v>0.849903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7632,10 +7632,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.027174</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0.029481</v>
+        <v>0.026261</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -7651,13 +7651,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.335513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -7670,13 +7670,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.003206</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002549</v>
+        <v>0.002271</v>
       </c>
       <c r="E95" t="n">
-        <v>0.177444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.013604</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0.014233</v>
+        <v>0.012678</v>
       </c>
       <c r="E96" t="n">
-        <v>0.012786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.540954</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.273349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.017429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -7778,10 +7778,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.698997</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07682899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.567441</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0.636568</v>
+        <v>0.567035</v>
       </c>
       <c r="E102" t="n">
-        <v>0.311319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -7813,13 +7813,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.08722299999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -7832,13 +7832,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.031061</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.004125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -7851,7 +7851,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7870,13 +7870,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.075517</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0.083803</v>
+        <v>0.07464899999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.508602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -7889,13 +7889,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.746205</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>0.837441</v>
+        <v>0.745966</v>
       </c>
       <c r="E107" t="n">
-        <v>0.296581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -7908,13 +7908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.038182</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0.041851</v>
+        <v>0.037279</v>
       </c>
       <c r="E108" t="n">
-        <v>0.223611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.009693999999999999</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.009839000000000001</v>
+        <v>0.008765</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -7946,13 +7946,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.000292</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.23565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.195999</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -7984,13 +7984,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.789467</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.107867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -8003,13 +8003,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.004296</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.003774</v>
+        <v>0.003362</v>
       </c>
       <c r="E113" t="n">
-        <v>0.017872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.000142</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -8041,10 +8041,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.201673</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.023039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -8057,10 +8057,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.494629</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.119732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -8073,10 +8073,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.084437</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09382600000000001</v>
+        <v>0.083577</v>
       </c>
     </row>
     <row r="118">
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.186929</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>0.208995</v>
+        <v>0.186166</v>
       </c>
       <c r="E118" t="n">
-        <v>0.427528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -8108,10 +8108,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.129806</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0.044841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.086268</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.095883</v>
+        <v>0.08541</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>0.462364</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.049635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -8162,13 +8162,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.089113</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09908</v>
+        <v>0.088258</v>
       </c>
       <c r="E122" t="n">
-        <v>0.013486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -8181,13 +8181,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.6727</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.040526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -8200,13 +8200,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.196435</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219676</v>
+        <v>0.195681</v>
       </c>
       <c r="E124" t="n">
-        <v>0.144676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -8219,13 +8219,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.071465</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.02029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -8244,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0.317215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8257,10 +8257,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.206484</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.20914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8273,10 +8273,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.466605</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.599167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -8308,13 +8308,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.058434</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0.064607</v>
+        <v>0.05755</v>
       </c>
       <c r="E130" t="n">
-        <v>0.004287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.054563</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.349975</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0.013666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.026447</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0.028664</v>
+        <v>0.025533</v>
       </c>
       <c r="E133" t="n">
-        <v>0.021885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8381,7 +8381,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.398374</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.658492</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.159417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.164857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>0.54718</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -8451,13 +8451,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>0.08355799999999999</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.073891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -8470,13 +8470,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>0.460658</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.00062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -8489,13 +8489,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.03474</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0.037982</v>
+        <v>0.033834</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -8508,13 +8508,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.230313</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.014489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.759308</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.127776</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>0.142525</v>
+        <v>0.126957</v>
       </c>
       <c r="E143" t="n">
-        <v>0.08243499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.102098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.002752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -8588,13 +8588,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.656296</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.006977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -8607,13 +8607,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.048354</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0.05328</v>
+        <v>0.04746</v>
       </c>
       <c r="E147" t="n">
-        <v>0.010467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -8626,13 +8626,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1522</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0.16997</v>
+        <v>0.151404</v>
       </c>
       <c r="E148" t="n">
-        <v>0.152282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -8645,13 +8645,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.644385</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0.723028</v>
+        <v>0.644052</v>
       </c>
       <c r="E149" t="n">
-        <v>0.013956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -8664,10 +8664,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.565726</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0.63464</v>
+        <v>0.565318</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.050054</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.05519</v>
+        <v>0.049162</v>
       </c>
       <c r="E151" t="n">
-        <v>0.376915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.905656</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8721,13 +8721,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.003658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -8740,10 +8740,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.007145</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>0.006975</v>
+        <v>0.006213</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -8759,7 +8759,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.03159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.51667</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -8791,13 +8791,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.6039</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.03437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -8810,13 +8810,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.033047</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8875,16 +8875,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.01789</v>
+        <v>-0.015936</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.010234</v>
+        <v>0.06265900000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.06265900000000001</v>
       </c>
     </row>
     <row r="3">
@@ -8897,16 +8897,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.000675</v>
+        <v>-0.013062</v>
       </c>
       <c r="D3" t="n">
-        <v>0.318016</v>
+        <v>2.499728</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000675</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.318016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8919,16 +8919,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.003106</v>
+        <v>-0.015385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003843</v>
+        <v>2.839766</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8941,16 +8941,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.018072</v>
+        <v>-0.016098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003026</v>
+        <v>0.038728</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003026</v>
+        <v>0.038728</v>
       </c>
     </row>
     <row r="6">
@@ -8963,16 +8963,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.012042</v>
+        <v>-0.015276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03006</v>
+        <v>6.357329</v>
       </c>
       <c r="E6" t="n">
-        <v>0.012042</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -8985,16 +8985,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.016401</v>
+        <v>-0.012976</v>
       </c>
       <c r="D7" t="n">
-        <v>0.329984</v>
+        <v>4.692142</v>
       </c>
       <c r="E7" t="n">
-        <v>0.016401</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.329984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -9007,16 +9007,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.052004</v>
+        <v>-0.014987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.946041</v>
+        <v>126.601707</v>
       </c>
       <c r="E8" t="n">
-        <v>0.052004</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.946041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -9029,16 +9029,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.160343</v>
+        <v>-0.014203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.519931</v>
+        <v>78.967707</v>
       </c>
       <c r="E9" t="n">
-        <v>0.160343</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.519931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -9051,16 +9051,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.005398</v>
+        <v>-0.014686</v>
       </c>
       <c r="D10" t="n">
-        <v>0.093497</v>
+        <v>1.702536</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.093497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -9073,16 +9073,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.284899</v>
+        <v>-0.011523</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5307500000000001</v>
+        <v>44.298175</v>
       </c>
       <c r="E11" t="n">
-        <v>0.284899</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5307500000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -9095,16 +9095,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.009202999999999999</v>
+        <v>-0.015429</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000938</v>
+        <v>2.411177</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -9117,16 +9117,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.009712999999999999</v>
+        <v>-0.014976</v>
       </c>
       <c r="D13" t="n">
-        <v>0.053483</v>
+        <v>3.705573</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009712999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.053483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -9139,16 +9139,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.108781</v>
+        <v>-0.014576</v>
       </c>
       <c r="D14" t="n">
-        <v>0.537579</v>
+        <v>81.57092400000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.108781</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.537579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -9161,16 +9161,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.010657</v>
+        <v>-0.015012</v>
       </c>
       <c r="D15" t="n">
-        <v>0.048439</v>
+        <v>1.012182</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.048439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -9183,16 +9183,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.017322</v>
+        <v>-0.01543</v>
       </c>
       <c r="D16" t="n">
-        <v>0.062848</v>
+        <v>0.1373</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.062848</v>
+        <v>0.1373</v>
       </c>
     </row>
     <row r="17">
@@ -9205,16 +9205,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.09339699999999999</v>
+        <v>0.092546</v>
       </c>
       <c r="D17" t="n">
-        <v>0.103895</v>
+        <v>16.04983</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09339699999999999</v>
+        <v>0.092546</v>
       </c>
       <c r="F17" t="n">
-        <v>0.103895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -9227,16 +9227,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.020623</v>
+        <v>-0.013554</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249985</v>
+        <v>5.314891</v>
       </c>
       <c r="E18" t="n">
-        <v>0.020623</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.249985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -9249,16 +9249,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.007956</v>
+        <v>-0.01542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.079816</v>
+        <v>12.888911</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.079816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -9271,16 +9271,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.133795</v>
+        <v>-0.014225</v>
       </c>
       <c r="D20" t="n">
-        <v>0.15724</v>
+        <v>22.008867</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133795</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.15724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -9293,16 +9293,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.018016</v>
+        <v>-0.016048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01412</v>
+        <v>0.046083</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01412</v>
+        <v>0.046083</v>
       </c>
     </row>
     <row r="22">
@@ -9315,16 +9315,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.018261</v>
+        <v>-0.016266</v>
       </c>
       <c r="D22" t="n">
-        <v>0.021545</v>
+        <v>0.013983</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.021545</v>
+        <v>0.013983</v>
       </c>
     </row>
     <row r="23">
@@ -9337,16 +9337,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.004305</v>
+        <v>-0.015206</v>
       </c>
       <c r="D23" t="n">
-        <v>0.021698</v>
+        <v>2.976322</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004305</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.021698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -9359,16 +9359,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.00651</v>
+        <v>-0.015277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.011813</v>
+        <v>1.556568</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.011813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -9381,16 +9381,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.033454</v>
+        <v>-0.015121</v>
       </c>
       <c r="D25" t="n">
-        <v>0.702026</v>
+        <v>94.568905</v>
       </c>
       <c r="E25" t="n">
-        <v>0.033454</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.702026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -9403,16 +9403,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.000663</v>
+        <v>-0.015358</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000663</v>
+        <v>-0.015358</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000663</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.000663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -9425,16 +9425,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.020602</v>
+        <v>-0.015214</v>
       </c>
       <c r="D27" t="n">
-        <v>0.020602</v>
+        <v>-0.015214</v>
       </c>
       <c r="E27" t="n">
-        <v>0.020602</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.020602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -9447,16 +9447,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.052883</v>
+        <v>-0.01498</v>
       </c>
       <c r="D28" t="n">
-        <v>0.104066</v>
+        <v>16.072341</v>
       </c>
       <c r="E28" t="n">
-        <v>0.052883</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.104066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -9469,16 +9469,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.012858</v>
+        <v>-0.015456</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115735</v>
+        <v>17.604128</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.115735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -9491,16 +9491,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01039</v>
+        <v>-0.015288</v>
       </c>
       <c r="D30" t="n">
-        <v>0.043159</v>
+        <v>8.076791</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01039</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.043159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -9513,16 +9513,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.015119</v>
+        <v>0.042678</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.015119</v>
+        <v>0.042678</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.042678</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.042678</v>
       </c>
     </row>
     <row r="32">
@@ -9535,16 +9535,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.01519</v>
+        <v>0.032074</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01519</v>
+        <v>0.032074</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.032074</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.032074</v>
       </c>
     </row>
     <row r="33">
@@ -9557,16 +9557,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.031655</v>
+        <v>-0.013943</v>
       </c>
       <c r="D33" t="n">
-        <v>0.196253</v>
+        <v>6.942231</v>
       </c>
       <c r="E33" t="n">
-        <v>0.031655</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.196253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -9579,16 +9579,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.015965</v>
+        <v>-0.014221</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01327</v>
+        <v>0.315351</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.315351</v>
       </c>
     </row>
     <row r="35">
@@ -9601,16 +9601,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.251256</v>
+        <v>-0.013536</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252492</v>
+        <v>39.335564</v>
       </c>
       <c r="E35" t="n">
-        <v>0.251256</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.252492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -9623,16 +9623,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.00104</v>
+        <v>-0.01537</v>
       </c>
       <c r="D36" t="n">
-        <v>0.005963</v>
+        <v>3.152489</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.005963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.663655</v>
+        <v>-0.008603</v>
       </c>
       <c r="D37" t="n">
-        <v>0.934361</v>
+        <v>100.168432</v>
       </c>
       <c r="E37" t="n">
-        <v>0.663655</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.934361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9667,16 +9667,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.319674</v>
+        <v>49.427842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.319674</v>
+        <v>49.427842</v>
       </c>
       <c r="E38" t="n">
-        <v>0.319674</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.319674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -9689,16 +9689,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.290047</v>
+        <v>-0.013265</v>
       </c>
       <c r="D39" t="n">
-        <v>0.781744</v>
+        <v>117.587699</v>
       </c>
       <c r="E39" t="n">
-        <v>0.290047</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.781744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -9711,16 +9711,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.087487</v>
+        <v>-0.01473</v>
       </c>
       <c r="D40" t="n">
-        <v>0.087487</v>
+        <v>-0.01473</v>
       </c>
       <c r="E40" t="n">
-        <v>0.087487</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.087487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9733,16 +9733,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.016265</v>
+        <v>-0.014808</v>
       </c>
       <c r="D41" t="n">
-        <v>0.076721</v>
+        <v>0.275957</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.076721</v>
+        <v>0.275957</v>
       </c>
     </row>
     <row r="42">
@@ -9755,16 +9755,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.041167</v>
+        <v>-0.015065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.065229</v>
+        <v>10.974075</v>
       </c>
       <c r="E42" t="n">
-        <v>0.041167</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.065229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -9777,16 +9777,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.007143</v>
+        <v>-0.015415</v>
       </c>
       <c r="D43" t="n">
-        <v>0.027547</v>
+        <v>6.027311</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.027547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -9799,16 +9799,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.016397</v>
+        <v>-0.014606</v>
       </c>
       <c r="D44" t="n">
-        <v>0.135619</v>
+        <v>0.258625</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.135619</v>
+        <v>0.258625</v>
       </c>
     </row>
     <row r="45">
@@ -9821,16 +9821,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.155454</v>
+        <v>-0.014238</v>
       </c>
       <c r="D45" t="n">
-        <v>0.155454</v>
+        <v>-0.014238</v>
       </c>
       <c r="E45" t="n">
-        <v>0.155454</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.155454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9843,16 +9843,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.016647</v>
+        <v>-0.01537</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.001011</v>
+        <v>0.225866</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.225866</v>
       </c>
     </row>
     <row r="47">
@@ -9865,13 +9865,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.397123</v>
+        <v>-0.007654</v>
       </c>
       <c r="D47" t="n">
-        <v>1.065633</v>
+        <v>60.852296</v>
       </c>
       <c r="E47" t="n">
-        <v>0.397123</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -9887,16 +9887,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.007622</v>
+        <v>-0.013061</v>
       </c>
       <c r="D48" t="n">
-        <v>0.31817</v>
+        <v>1.410592</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.31817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -9909,16 +9909,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.008928</v>
+        <v>-0.015427</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.005197</v>
+        <v>1.506135</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -9931,16 +9931,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.312495</v>
+        <v>-0.013102</v>
       </c>
       <c r="D50" t="n">
-        <v>0.718898</v>
+        <v>108.31729</v>
       </c>
       <c r="E50" t="n">
-        <v>0.312495</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.718898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -9953,16 +9953,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.012325</v>
+        <v>-0.015274</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318756</v>
+        <v>49.292407</v>
       </c>
       <c r="E51" t="n">
-        <v>0.012325</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.318756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -9975,16 +9975,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.004159</v>
+        <v>-0.013773</v>
       </c>
       <c r="D52" t="n">
-        <v>0.219738</v>
+        <v>1.865167</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.219738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -9997,16 +9997,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.011747</v>
+        <v>0.5400509999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.011747</v>
+        <v>0.5400509999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.5400509999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.5400509999999999</v>
       </c>
     </row>
     <row r="54">
@@ -10019,16 +10019,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01206</v>
+        <v>-0.013521</v>
       </c>
       <c r="D54" t="n">
-        <v>0.254556</v>
+        <v>4.051789</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01206</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.254556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -10041,16 +10041,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.007856</v>
+        <v>-0.015306</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448671</v>
+        <v>68.45623500000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.007856</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -10063,16 +10063,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.008989</v>
+        <v>-0.015233</v>
       </c>
       <c r="D56" t="n">
-        <v>0.017948</v>
+        <v>3.598727</v>
       </c>
       <c r="E56" t="n">
-        <v>0.008989</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.017948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -10085,16 +10085,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.09647799999999999</v>
+        <v>-0.014665</v>
       </c>
       <c r="D57" t="n">
-        <v>0.367147</v>
+        <v>56.430529</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09647799999999999</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.367147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -10107,16 +10107,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.016796</v>
+        <v>-0.01516</v>
       </c>
       <c r="D58" t="n">
-        <v>0.028026</v>
+        <v>0.206317</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.028026</v>
+        <v>0.206317</v>
       </c>
     </row>
     <row r="59">
@@ -10129,16 +10129,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.021975</v>
+        <v>-0.015204</v>
       </c>
       <c r="D59" t="n">
-        <v>0.021975</v>
+        <v>-0.015204</v>
       </c>
       <c r="E59" t="n">
-        <v>0.021975</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.021975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10151,16 +10151,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.018311</v>
+        <v>-0.016311</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.015358</v>
+        <v>0.007412</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>0.007412</v>
       </c>
     </row>
     <row r="61">
@@ -10173,16 +10173,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.018432</v>
+        <v>-0.016418</v>
       </c>
       <c r="D61" t="n">
-        <v>0.023448</v>
+        <v>-0.008409</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.023448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10195,16 +10195,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.017029</v>
+        <v>-0.015169</v>
       </c>
       <c r="D62" t="n">
-        <v>0.071503</v>
+        <v>0.175696</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.071503</v>
+        <v>0.175696</v>
       </c>
     </row>
     <row r="63">
@@ -10217,16 +10217,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.848066</v>
+        <v>0.847923</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9519</v>
+        <v>127.370868</v>
       </c>
       <c r="E63" t="n">
-        <v>0.848066</v>
+        <v>0.847923</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -10239,16 +10239,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.107849</v>
+        <v>-0.014583</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223775</v>
+        <v>35.281809</v>
       </c>
       <c r="E64" t="n">
-        <v>0.107849</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.223775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -10261,16 +10261,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.012817</v>
+        <v>-0.015456</v>
       </c>
       <c r="D65" t="n">
-        <v>0.020569</v>
+        <v>5.111356</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.020569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -10283,16 +10283,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.009802</v>
+        <v>-0.015434</v>
       </c>
       <c r="D66" t="n">
-        <v>0.051635</v>
+        <v>9.189564000000001</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.051635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -10305,16 +10305,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.208235</v>
+        <v>32.989469</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208235</v>
+        <v>32.989469</v>
       </c>
       <c r="E67" t="n">
-        <v>0.208235</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.208235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -10327,16 +10327,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.005726</v>
+        <v>-0.015404</v>
       </c>
       <c r="D68" t="n">
-        <v>0.022077</v>
+        <v>5.309276</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.022077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -10349,16 +10349,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.258463</v>
+        <v>-0.013493</v>
       </c>
       <c r="D69" t="n">
-        <v>0.543123</v>
+        <v>82.38872600000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.258463</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.543123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -10371,16 +10371,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.152906</v>
+        <v>-0.014257</v>
       </c>
       <c r="D70" t="n">
-        <v>0.585543</v>
+        <v>79.277738</v>
       </c>
       <c r="E70" t="n">
-        <v>0.152906</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.585543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -10393,16 +10393,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.011976</v>
+        <v>-0.015276</v>
       </c>
       <c r="D71" t="n">
-        <v>0.368366</v>
+        <v>56.61038</v>
       </c>
       <c r="E71" t="n">
-        <v>0.011976</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.368366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -10415,16 +10415,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.027777</v>
+        <v>-0.013096</v>
       </c>
       <c r="D72" t="n">
-        <v>0.313289</v>
+        <v>6.3702</v>
       </c>
       <c r="E72" t="n">
-        <v>0.027777</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.313289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-9e-06</v>
+        <v>-0.015363</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26173</v>
+        <v>36.769511</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.26173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -10459,16 +10459,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.08076999999999999</v>
+        <v>-0.014779</v>
       </c>
       <c r="D74" t="n">
-        <v>0.108825</v>
+        <v>16.697045</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08076999999999999</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.108825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -10481,16 +10481,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01037</v>
+        <v>-0.015043</v>
       </c>
       <c r="D75" t="n">
-        <v>0.044235</v>
+        <v>3.80242</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01037</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.044235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -10503,16 +10503,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.001054</v>
+        <v>-0.015298</v>
       </c>
       <c r="D76" t="n">
-        <v>0.008937</v>
+        <v>2.272812</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.008937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -10525,16 +10525,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.372318</v>
+        <v>57.193385</v>
       </c>
       <c r="D77" t="n">
-        <v>0.372318</v>
+        <v>57.193385</v>
       </c>
       <c r="E77" t="n">
-        <v>0.372318</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.372318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -10547,16 +10547,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.053772</v>
+        <v>-0.013883</v>
       </c>
       <c r="D78" t="n">
-        <v>0.204493</v>
+        <v>10.204708</v>
       </c>
       <c r="E78" t="n">
-        <v>0.053772</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.204493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -10569,16 +10569,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.012631</v>
+        <v>0.409592</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.012631</v>
+        <v>0.409592</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.409592</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>0.409592</v>
       </c>
     </row>
     <row r="80">
@@ -10591,16 +10591,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.013481</v>
+        <v>0.28428</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.013481</v>
+        <v>0.28428</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.28428</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.28428</v>
       </c>
     </row>
     <row r="81">
@@ -10613,16 +10613,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.243846</v>
+        <v>-0.010375</v>
       </c>
       <c r="D81" t="n">
-        <v>0.689453</v>
+        <v>38.242449</v>
       </c>
       <c r="E81" t="n">
-        <v>0.243846</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.689453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -10635,16 +10635,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.09411600000000001</v>
+        <v>-0.014566</v>
       </c>
       <c r="D82" t="n">
-        <v>0.110119</v>
+        <v>16.155878</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09411600000000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.110119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.01285</v>
+        <v>-0.013279</v>
       </c>
       <c r="D83" t="n">
-        <v>0.288016</v>
+        <v>0.724312</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.288016</v>
+        <v>0.724312</v>
       </c>
     </row>
     <row r="84">
@@ -10679,16 +10679,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.080884</v>
+        <v>-0.014778</v>
       </c>
       <c r="D84" t="n">
-        <v>0.080884</v>
+        <v>-0.014778</v>
       </c>
       <c r="E84" t="n">
-        <v>0.080884</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.080884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -10701,16 +10701,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.008049000000000001</v>
+        <v>-0.015355</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001083</v>
+        <v>1.354581</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.001083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -10723,16 +10723,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.223832</v>
+        <v>-0.012117</v>
       </c>
       <c r="D86" t="n">
-        <v>0.448721</v>
+        <v>35.290174</v>
       </c>
       <c r="E86" t="n">
-        <v>0.223832</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.448721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -10745,16 +10745,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.017372</v>
+        <v>-0.015474</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005249</v>
+        <v>0.130724</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.005249</v>
+        <v>0.130724</v>
       </c>
     </row>
     <row r="88">
@@ -10767,16 +10767,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.016091</v>
+        <v>-0.015196</v>
       </c>
       <c r="D88" t="n">
-        <v>0.023102</v>
+        <v>0.298809</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.023102</v>
+        <v>0.298809</v>
       </c>
     </row>
     <row r="89">
@@ -10789,16 +10789,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.030611</v>
+        <v>-0.015141</v>
       </c>
       <c r="D89" t="n">
-        <v>0.244004</v>
+        <v>34.442551</v>
       </c>
       <c r="E89" t="n">
-        <v>0.030611</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.244004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -10811,16 +10811,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.017103</v>
+        <v>-0.015235</v>
       </c>
       <c r="D90" t="n">
-        <v>0.021739</v>
+        <v>0.165931</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.021739</v>
+        <v>0.165931</v>
       </c>
     </row>
     <row r="91">
@@ -10833,16 +10833,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.017782</v>
+        <v>-0.015839</v>
       </c>
       <c r="D91" t="n">
-        <v>0.080766</v>
+        <v>0.076907</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.080766</v>
+        <v>0.076907</v>
       </c>
     </row>
     <row r="92">
@@ -10855,16 +10855,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.066829</v>
+        <v>-0.009214</v>
       </c>
       <c r="D92" t="n">
-        <v>0.849903</v>
+        <v>12.130782</v>
       </c>
       <c r="E92" t="n">
-        <v>0.066829</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.849903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -10877,16 +10877,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.002992</v>
+        <v>-0.015384</v>
       </c>
       <c r="D93" t="n">
-        <v>0.029481</v>
+        <v>6.281245</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.029481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -10899,16 +10899,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.002362</v>
+        <v>-0.012936</v>
       </c>
       <c r="D94" t="n">
-        <v>0.335513</v>
+        <v>2.101107</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.335513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -10921,16 +10921,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.002549</v>
+        <v>-0.014079</v>
       </c>
       <c r="D95" t="n">
-        <v>0.177444</v>
+        <v>2.745778</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002549</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.177444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -10943,16 +10943,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.012786</v>
+        <v>-0.01527</v>
       </c>
       <c r="D96" t="n">
-        <v>0.014233</v>
+        <v>4.279585</v>
       </c>
       <c r="E96" t="n">
-        <v>0.012786</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.014233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -10965,16 +10965,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.002295</v>
+        <v>-0.015329</v>
       </c>
       <c r="D97" t="n">
-        <v>0.004727</v>
+        <v>2.1099</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -10987,16 +10987,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.014247</v>
+        <v>-0.015425</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.008548</v>
+        <v>0.540954</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>0.540954</v>
       </c>
     </row>
     <row r="99">
@@ -11009,16 +11009,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.273349</v>
+        <v>-0.013385</v>
       </c>
       <c r="D99" t="n">
-        <v>0.273349</v>
+        <v>-0.013385</v>
       </c>
       <c r="E99" t="n">
-        <v>0.273349</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.273349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -11031,16 +11031,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.010364</v>
+        <v>-0.015237</v>
       </c>
       <c r="D100" t="n">
-        <v>0.017429</v>
+        <v>1.050686</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.017429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -11053,16 +11053,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.07682899999999999</v>
+        <v>-0.014807</v>
       </c>
       <c r="D101" t="n">
-        <v>0.698997</v>
+        <v>105.3817</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07682899999999999</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.698997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -11075,16 +11075,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.311319</v>
+        <v>-0.013111</v>
       </c>
       <c r="D102" t="n">
-        <v>0.636568</v>
+        <v>85.975961</v>
       </c>
       <c r="E102" t="n">
-        <v>0.311319</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.636568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -11097,16 +11097,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.007569</v>
+        <v>-0.014732</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08722299999999999</v>
+        <v>1.41761</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.08722299999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -11119,16 +11119,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.018131</v>
+        <v>-0.01615</v>
       </c>
       <c r="D104" t="n">
-        <v>0.004125</v>
+        <v>0.031061</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.004125</v>
+        <v>0.031061</v>
       </c>
     </row>
     <row r="105">
@@ -11141,16 +11141,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.010285</v>
+        <v>-0.015437</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.001083</v>
+        <v>2.113028</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -11163,16 +11163,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.075517</v>
+        <v>-0.011683</v>
       </c>
       <c r="D106" t="n">
-        <v>0.508602</v>
+        <v>13.4123</v>
       </c>
       <c r="E106" t="n">
-        <v>0.075517</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.508602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -11185,16 +11185,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.296581</v>
+        <v>-0.013217</v>
       </c>
       <c r="D107" t="n">
-        <v>0.837441</v>
+        <v>112.345319</v>
       </c>
       <c r="E107" t="n">
-        <v>0.296581</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.837441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -11207,16 +11207,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.038182</v>
+        <v>-0.013745</v>
       </c>
       <c r="D108" t="n">
-        <v>0.223611</v>
+        <v>7.905064</v>
       </c>
       <c r="E108" t="n">
-        <v>0.038182</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.223611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.009728000000000001</v>
+        <v>-0.015433</v>
       </c>
       <c r="D109" t="n">
-        <v>0.009839000000000001</v>
+        <v>3.702813</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.009839000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -11251,16 +11251,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.000726</v>
+        <v>-0.013658</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23565</v>
+        <v>2.315882</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.23565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -11273,16 +11273,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.016874</v>
+        <v>-0.015378</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.002089</v>
+        <v>0.195999</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>0.195999</v>
       </c>
     </row>
     <row r="112">
@@ -11295,16 +11295,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.012354</v>
+        <v>-0.014582</v>
       </c>
       <c r="D112" t="n">
-        <v>0.107867</v>
+        <v>0.789467</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.107867</v>
+        <v>0.789467</v>
       </c>
     </row>
     <row r="113">
@@ -11317,16 +11317,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.003774</v>
+        <v>-0.015234</v>
       </c>
       <c r="D113" t="n">
-        <v>0.017872</v>
+        <v>2.906585</v>
       </c>
       <c r="E113" t="n">
-        <v>0.003774</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.017872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -11339,16 +11339,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-0.003321</v>
+        <v>-0.015387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.000142</v>
+        <v>2.293744</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.000142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -11361,16 +11361,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.023039</v>
+        <v>-0.015196</v>
       </c>
       <c r="D115" t="n">
-        <v>0.201673</v>
+        <v>32.02154</v>
       </c>
       <c r="E115" t="n">
-        <v>0.023039</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.201673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -11383,16 +11383,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.119732</v>
+        <v>-0.014497</v>
       </c>
       <c r="D116" t="n">
-        <v>0.494629</v>
+        <v>75.23543100000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.119732</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.494629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -11405,16 +11405,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.084437</v>
+        <v>0.083577</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09382600000000001</v>
+        <v>14.728028</v>
       </c>
       <c r="E117" t="n">
-        <v>0.084437</v>
+        <v>0.083577</v>
       </c>
       <c r="F117" t="n">
-        <v>0.09382600000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -11427,16 +11427,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.186929</v>
+        <v>-0.01227</v>
       </c>
       <c r="D118" t="n">
-        <v>0.427528</v>
+        <v>29.846715</v>
       </c>
       <c r="E118" t="n">
-        <v>0.186929</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.427528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -11449,16 +11449,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.044841</v>
+        <v>-0.015038</v>
       </c>
       <c r="D119" t="n">
-        <v>0.129806</v>
+        <v>21.420473</v>
       </c>
       <c r="E119" t="n">
-        <v>0.044841</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.129806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -11471,16 +11471,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.004328</v>
+        <v>-0.015394</v>
       </c>
       <c r="D120" t="n">
-        <v>0.095883</v>
+        <v>14.998121</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.095883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -11493,16 +11493,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.014845</v>
+        <v>-0.015004</v>
       </c>
       <c r="D121" t="n">
-        <v>0.049635</v>
+        <v>0.462364</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.049635</v>
+        <v>0.462364</v>
       </c>
     </row>
     <row r="122">
@@ -11515,16 +11515,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.013486</v>
+        <v>-0.015265</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09908</v>
+        <v>15.41786</v>
       </c>
       <c r="E122" t="n">
-        <v>0.013486</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.09908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -11537,16 +11537,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-0.013243</v>
+        <v>-0.01507</v>
       </c>
       <c r="D123" t="n">
-        <v>0.040526</v>
+        <v>0.6727</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.040526</v>
+        <v>0.6727</v>
       </c>
     </row>
     <row r="124">
@@ -11559,16 +11559,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.144676</v>
+        <v>-0.014316</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219676</v>
+        <v>31.248941</v>
       </c>
       <c r="E124" t="n">
-        <v>0.144676</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.219676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -11581,16 +11581,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.017823</v>
+        <v>-0.015876</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02029</v>
+        <v>0.071465</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02029</v>
+        <v>0.071465</v>
       </c>
     </row>
     <row r="126">
@@ -11603,13 +11603,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.317215</v>
+        <v>-0.013068</v>
       </c>
       <c r="D126" t="n">
-        <v>1.122625</v>
+        <v>149.782606</v>
       </c>
       <c r="E126" t="n">
-        <v>0.317215</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -11625,16 +11625,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.206484</v>
+        <v>-0.01385</v>
       </c>
       <c r="D127" t="n">
-        <v>0.20914</v>
+        <v>32.731249</v>
       </c>
       <c r="E127" t="n">
-        <v>0.206484</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.20914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -11647,16 +11647,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.466605</v>
+        <v>-0.011028</v>
       </c>
       <c r="D128" t="n">
-        <v>0.599167</v>
+        <v>71.10156000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.466605</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.599167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -11669,10 +11669,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.01844</v>
+        <v>-0.016426</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.011748</v>
+        <v>-0.009545</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -11691,16 +11691,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.004287</v>
+        <v>-0.015332</v>
       </c>
       <c r="D130" t="n">
-        <v>0.064607</v>
+        <v>10.892415</v>
       </c>
       <c r="E130" t="n">
-        <v>0.004287</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.064607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -11713,16 +11713,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.017952</v>
+        <v>-0.015991</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.00941</v>
+        <v>0.054563</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>0.054563</v>
       </c>
     </row>
     <row r="132">
@@ -11735,16 +11735,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.013666</v>
+        <v>-0.015264</v>
       </c>
       <c r="D132" t="n">
-        <v>0.349975</v>
+        <v>53.897486</v>
       </c>
       <c r="E132" t="n">
-        <v>0.013666</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.349975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -11757,16 +11757,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.021885</v>
+        <v>-0.015205</v>
       </c>
       <c r="D133" t="n">
-        <v>0.028664</v>
+        <v>6.173965</v>
       </c>
       <c r="E133" t="n">
-        <v>0.021885</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.028664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -11779,16 +11779,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.015333</v>
+        <v>-0.01545</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01208</v>
+        <v>0.398374</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>0.398374</v>
       </c>
     </row>
     <row r="135">
@@ -11801,16 +11801,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.159417</v>
+        <v>-0.01421</v>
       </c>
       <c r="D135" t="n">
-        <v>0.658492</v>
+        <v>99.406874</v>
       </c>
       <c r="E135" t="n">
-        <v>0.159417</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.658492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -11823,13 +11823,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.164857</v>
+        <v>-0.01417</v>
       </c>
       <c r="D136" t="n">
-        <v>1.129216</v>
+        <v>150.64791</v>
       </c>
       <c r="E136" t="n">
-        <v>0.164857</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -11845,16 +11845,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.014199</v>
+        <v>-0.012648</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.011698</v>
+        <v>0.54718</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>0.54718</v>
       </c>
     </row>
     <row r="138">
@@ -11867,16 +11867,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.017731</v>
+        <v>-0.015794</v>
       </c>
       <c r="D138" t="n">
-        <v>0.073891</v>
+        <v>0.08355799999999999</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.073891</v>
+        <v>0.08355799999999999</v>
       </c>
     </row>
     <row r="139">
@@ -11889,16 +11889,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.014858</v>
+        <v>-0.015358</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00062</v>
+        <v>0.460658</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00062</v>
+        <v>0.460658</v>
       </c>
     </row>
     <row r="140">
@@ -11911,16 +11911,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.001802</v>
+        <v>-0.01535</v>
       </c>
       <c r="D140" t="n">
-        <v>0.037982</v>
+        <v>7.397271</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001802</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.037982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -11933,16 +11933,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.016613</v>
+        <v>-0.015258</v>
       </c>
       <c r="D141" t="n">
-        <v>0.014489</v>
+        <v>0.230313</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.014489</v>
+        <v>0.230313</v>
       </c>
     </row>
     <row r="142">
@@ -11955,16 +11955,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.012583</v>
+        <v>-0.011209</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01026</v>
+        <v>0.759308</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>0.759308</v>
       </c>
     </row>
     <row r="143">
@@ -11977,16 +11977,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.08243499999999999</v>
+        <v>-0.014766</v>
       </c>
       <c r="D143" t="n">
-        <v>0.142525</v>
+        <v>21.120981</v>
       </c>
       <c r="E143" t="n">
-        <v>0.08243499999999999</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.142525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -11999,16 +11999,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.102098</v>
+        <v>17.333206</v>
       </c>
       <c r="D144" t="n">
-        <v>0.102098</v>
+        <v>17.333206</v>
       </c>
       <c r="E144" t="n">
-        <v>0.102098</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.102098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.002752</v>
+        <v>-0.015343</v>
       </c>
       <c r="D145" t="n">
-        <v>0.002752</v>
+        <v>-0.015343</v>
       </c>
       <c r="E145" t="n">
-        <v>0.002752</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.002752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -12043,16 +12043,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.013368</v>
+        <v>-0.015312</v>
       </c>
       <c r="D146" t="n">
-        <v>0.006977</v>
+        <v>0.656296</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.006977</v>
+        <v>0.656296</v>
       </c>
     </row>
     <row r="147">
@@ -12065,16 +12065,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.010467</v>
+        <v>-0.015287</v>
       </c>
       <c r="D147" t="n">
-        <v>0.05328</v>
+        <v>9.405434</v>
       </c>
       <c r="E147" t="n">
-        <v>0.010467</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.05328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -12087,16 +12087,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1522</v>
+        <v>-0.014261</v>
       </c>
       <c r="D148" t="n">
-        <v>0.16997</v>
+        <v>24.723764</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1522</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.16997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -12109,16 +12109,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.013956</v>
+        <v>-0.015262</v>
       </c>
       <c r="D149" t="n">
-        <v>0.723028</v>
+        <v>97.325985</v>
       </c>
       <c r="E149" t="n">
-        <v>0.013956</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.723028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -12131,16 +12131,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-0.008425999999999999</v>
+        <v>-0.015424</v>
       </c>
       <c r="D150" t="n">
-        <v>0.63464</v>
+        <v>85.72291800000001</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.63464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -12153,16 +12153,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.050054</v>
+        <v>-0.012636</v>
       </c>
       <c r="D151" t="n">
-        <v>0.376915</v>
+        <v>9.656230000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>0.050054</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.376915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -12175,16 +12175,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-0.011468</v>
+        <v>-0.015401</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.005305</v>
+        <v>0.905656</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>0.905656</v>
       </c>
     </row>
     <row r="153">
@@ -12197,16 +12197,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.008999</v>
+        <v>-0.015336</v>
       </c>
       <c r="D153" t="n">
-        <v>0.003658</v>
+        <v>1.22983</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.003658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -12219,16 +12219,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.003033</v>
+        <v>-0.015385</v>
       </c>
       <c r="D154" t="n">
-        <v>0.007145</v>
+        <v>3.326751</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.007145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -12241,16 +12241,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.03159</v>
+        <v>6.932711</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03159</v>
+        <v>6.932711</v>
       </c>
       <c r="E155" t="n">
-        <v>0.03159</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -12263,16 +12263,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.014432</v>
+        <v>-0.015372</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.00123</v>
+        <v>0.51667</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>0.51667</v>
       </c>
     </row>
     <row r="157">
@@ -12285,16 +12285,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-0.013767</v>
+        <v>-0.015114</v>
       </c>
       <c r="D157" t="n">
-        <v>0.03437</v>
+        <v>0.6039</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.03437</v>
+        <v>0.6039</v>
       </c>
     </row>
     <row r="158">
@@ -12307,16 +12307,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-0.001787</v>
+        <v>-0.015124</v>
       </c>
       <c r="D158" t="n">
-        <v>0.033047</v>
+        <v>2.176568</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.033047</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
